--- a/hepatitis-unknown.xlsx
+++ b/hepatitis-unknown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-world-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38EF4772-D345-45CF-AFF7-3552C9FC08CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8579D92C-157D-443D-9E4C-DF6787BD28E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{3F6AB47C-27D8-45D6-8D7D-E2F562EB6B30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Country</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Palestine</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -200,8 +203,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A7E17F6-E68E-4086-9461-3D7ABDCAC678}" name="Table1" displayName="Table1" ref="A1:D27" totalsRowShown="0">
-  <autoFilter ref="A1:D27" xr:uid="{3A7E17F6-E68E-4086-9461-3D7ABDCAC678}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A7E17F6-E68E-4086-9461-3D7ABDCAC678}" name="Table1" displayName="Table1" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28" xr:uid="{3A7E17F6-E68E-4086-9461-3D7ABDCAC678}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B8DB706F-1256-4DFF-8A97-6B6213DC2585}" name="As At Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{B1B0BCC1-1167-4836-BA0C-4E7833B951EC}" name="Country"/>
@@ -509,15 +512,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD425F8-538C-4BB5-B5DF-0F9DC5FAD4A4}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="87.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -722,10 +726,10 @@
         <v>44691</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>17</v>
@@ -736,10 +740,10 @@
         <v>44691</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
@@ -750,10 +754,10 @@
         <v>44691</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -764,10 +768,10 @@
         <v>44691</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>17</v>
@@ -778,10 +782,10 @@
         <v>44691</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>17</v>
@@ -792,10 +796,10 @@
         <v>44691</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>17</v>
@@ -806,10 +810,10 @@
         <v>44691</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>17</v>
@@ -820,10 +824,10 @@
         <v>44691</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
@@ -834,7 +838,7 @@
         <v>44691</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -848,7 +852,7 @@
         <v>44691</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -862,7 +866,7 @@
         <v>44691</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -876,7 +880,7 @@
         <v>44691</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -890,25 +894,38 @@
         <v>44691</v>
       </c>
       <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>109</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F88AB10D-FA8D-4B00-B4EC-91F83C1B9A21}"/>
-    <hyperlink ref="D3:D21" r:id="rId2" display="https://www.ecdc.europa.eu/en/news-events/epidemiological-update-hepatitis-unknown-aetiology-children" xr:uid="{E935A45C-1E6E-4333-95F5-921EEF3E6EEB}"/>
-    <hyperlink ref="D22:D27" r:id="rId3" display="https://www.ecdc.europa.eu/en/news-events/epidemiological-update-hepatitis-unknown-aetiology-children" xr:uid="{6CCEA858-7C94-4BD1-A78F-1C90C1433FBB}"/>
+    <hyperlink ref="D23:D28" r:id="rId2" display="https://www.ecdc.europa.eu/en/news-events/epidemiological-update-hepatitis-unknown-aetiology-children" xr:uid="{6CCEA858-7C94-4BD1-A78F-1C90C1433FBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/hepatitis-unknown.xlsx
+++ b/hepatitis-unknown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-world-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8579D92C-157D-443D-9E4C-DF6787BD28E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93031F-D67F-4FBA-ABE5-A0BC8E739238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{3F6AB47C-27D8-45D6-8D7D-E2F562EB6B30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>Country</t>
   </si>
@@ -132,13 +132,37 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>https://www.ecdc.europa.eu/en/news-events/ecdc-publishes-rapid-risk-assessment-increase-severe-acute-hepatitis-cases-unknown</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/media/releases/2022/s0421-hepatitis-alert.html</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>https://cdn.ecdc.europa.eu/novhep-surveillance/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +177,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,18 +200,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{10042B01-E444-46ED-AE19-D4077D6648F6}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -203,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A7E17F6-E68E-4086-9461-3D7ABDCAC678}" name="Table1" displayName="Table1" ref="A1:D28" totalsRowShown="0">
-  <autoFilter ref="A1:D28" xr:uid="{3A7E17F6-E68E-4086-9461-3D7ABDCAC678}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A7E17F6-E68E-4086-9461-3D7ABDCAC678}" name="Table1" displayName="Table1" ref="A1:D57" totalsRowShown="0">
+  <autoFilter ref="A1:D57" xr:uid="{3A7E17F6-E68E-4086-9461-3D7ABDCAC678}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B8DB706F-1256-4DFF-8A97-6B6213DC2585}" name="As At Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{B1B0BCC1-1167-4836-BA0C-4E7833B951EC}" name="Country"/>
@@ -512,20 +544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD425F8-538C-4BB5-B5DF-0F9DC5FAD4A4}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -539,334 +571,334 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B2" t="s">
+        <v>44694</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4">
+        <v>131</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C22">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C23">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B25" t="s">
         <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
-        <v>163</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -875,57 +907,457 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>44691</v>
       </c>
       <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>163</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D40" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B41" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="C41">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C42">
         <v>109</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D42" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>111</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{F88AB10D-FA8D-4B00-B4EC-91F83C1B9A21}"/>
-    <hyperlink ref="D23:D28" r:id="rId2" display="https://www.ecdc.europa.eu/en/news-events/epidemiological-update-hepatitis-unknown-aetiology-children" xr:uid="{6CCEA858-7C94-4BD1-A78F-1C90C1433FBB}"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{F88AB10D-FA8D-4B00-B4EC-91F83C1B9A21}"/>
+    <hyperlink ref="D37:D42" r:id="rId2" display="https://www.ecdc.europa.eu/en/news-events/epidemiological-update-hepatitis-unknown-aetiology-children" xr:uid="{6CCEA858-7C94-4BD1-A78F-1C90C1433FBB}"/>
+    <hyperlink ref="D43" r:id="rId3" xr:uid="{528BE00E-AE4C-4701-9422-903E0A81F753}"/>
+    <hyperlink ref="D44:D55" r:id="rId4" display="https://www.ecdc.europa.eu/en/news-events/ecdc-publishes-rapid-risk-assessment-increase-severe-acute-hepatitis-cases-unknown" xr:uid="{087B519B-B428-4C13-89DF-817804BDBFC3}"/>
+    <hyperlink ref="D56" r:id="rId5" xr:uid="{36B84A96-3770-4C49-BD17-51142D7960F2}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{1B0A13C7-4F77-4C71-AAD1-4DC0E89FB5A4}"/>
+    <hyperlink ref="D3:D15" r:id="rId7" display="https://cdn.ecdc.europa.eu/novhep-surveillance/" xr:uid="{DCBCFC8A-8545-4D4B-AFCC-2968A15FC590}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>